--- a/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD PROVINCIAL DE CHACHAPOYAS/ MUNICIPALIDAD PROVINCIAL DE CHACHAPOYAS.xlsx
+++ b/sessions/data/Part_I/SIAF/districts/ MUNICIPALIDAD PROVINCIAL DE CHACHAPOYAS/ MUNICIPALIDAD PROVINCIAL DE CHACHAPOYAS.xlsx
@@ -576,7 +576,7 @@
         <v>3502855</v>
       </c>
       <c r="I4" t="n">
-        <v>3467091</v>
+        <v>3468522</v>
       </c>
       <c r="J4" t="n">
         <v>9.300000000000001</v>
@@ -629,7 +629,7 @@
         <v>22193662</v>
       </c>
       <c r="D6" t="n">
-        <v>27082264</v>
+        <v>27090764</v>
       </c>
       <c r="E6" t="n">
         <v>27077932</v>
@@ -669,10 +669,10 @@
         <v>1647000</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1647000</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1647000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>838645</v>
+        <v>1638645</v>
       </c>
       <c r="E8" t="n">
-        <v>836000</v>
+        <v>1636000</v>
       </c>
       <c r="F8" t="n">
         <v>821000</v>
       </c>
       <c r="G8" t="n">
-        <v>21000</v>
+        <v>261000</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>609047</v>
       </c>
       <c r="D9" t="n">
-        <v>5892572</v>
+        <v>5084072</v>
       </c>
       <c r="E9" t="n">
         <v>4678574</v>
@@ -749,7 +749,7 @@
         <v>3958163</v>
       </c>
       <c r="J9" t="n">
-        <v>67.2</v>
+        <v>77.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>98000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>4002148</v>
       </c>
       <c r="F11" t="n">
-        <v>3976228</v>
+        <v>4002148</v>
       </c>
       <c r="G11" t="n">
-        <v>3915152</v>
+        <v>3916232</v>
       </c>
       <c r="H11" t="n">
         <v>3915152</v>
